--- a/V3/Final-Project-Test-Cases.xlsx
+++ b/V3/Final-Project-Test-Cases.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/adsmith6_myseneca_ca/Documents/CPR101/finalProject/project/git/CPR101group3/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seneca-my.sharepoint.com/personal/adsmith6_myseneca_ca/Documents/CPR101/finalProject/project/V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{FFC6FA63-F955-4637-848C-72668EEFD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A380B67-3ECE-4C93-ABB0-8A89F57C4236}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{FFC6FA63-F955-4637-848C-72668EEFD8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{541C901B-CE87-40BE-B1F1-2219078AC5CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
-    <sheet name="manipulations" sheetId="10" r:id="rId2"/>
-    <sheet name="conversions" sheetId="11" r:id="rId3"/>
+    <sheet name="fundamentals" sheetId="16" r:id="rId2"/>
+    <sheet name="manipulations" sheetId="14" r:id="rId3"/>
+    <sheet name="tokenizing" sheetId="17" r:id="rId4"/>
+    <sheet name="conversions" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -763,7 +765,7 @@
     <author>Tim McKenna</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{EAC3AD66-3B5D-47BF-8C22-21387557EF3F}">
       <text>
         <r>
           <rPr>
@@ -807,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{5EE88EF8-3D95-46EC-9086-6EEFE267F174}">
       <text>
         <r>
           <rPr>
@@ -872,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6C750A83-714D-4A04-9997-6599C1A2CB2C}">
       <text>
         <r>
           <rPr>
@@ -898,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{B4B2A98C-95F6-4B52-AB84-90747D188AF1}">
       <text>
         <r>
           <rPr>
@@ -943,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{5595FA2C-59A9-4909-9215-7F10CF2BFF43}">
       <text>
         <r>
           <rPr>
@@ -967,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{5C951CAB-B776-48FB-A031-C274854653DD}">
       <text>
         <r>
           <rPr>
@@ -990,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{EA737553-36D4-4784-85C0-2E9FFA8C63BF}">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{05AD4092-0E55-4693-9EEA-78C1413C3341}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1051,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F6D704A7-EA9F-4A88-97CF-1F99F1CC20A7}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{5F7619C4-0357-4BE1-B469-EC714CFBBFBD}">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{5CEDA2E1-FFC4-4A32-AC77-06BDEA433347}">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{E017C20B-3A26-4D3F-B808-F541DEE4B15D}">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{106120FE-AA32-426F-8B89-7A224C8C614D}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{52F1CB76-58C0-4D65-8529-4100E690378B}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{064C6A44-F134-4DB5-9E3D-FD14E9CD8CAC}">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{E6E5065F-E002-42EB-B9F2-91E5BBC8FF94}">
       <text>
         <r>
           <rPr>
@@ -1356,7 +1358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{9AE55D63-8706-4229-9B7E-0CA28C62D0E8}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{4D839FE8-CA9D-4F4B-B1D8-2A52C0FE44A2}">
       <text>
         <r>
           <rPr>
@@ -1427,7 +1429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{2CE128C0-C6E0-4C8A-8A80-66A14A9D9FB0}">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{E72B5ECE-8163-4215-B259-4BA232B0C083}">
       <text>
         <r>
           <rPr>
@@ -1474,7 +1476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{8BD3D058-67AA-4FDB-93EE-D929394F8C53}">
       <text>
         <r>
           <rPr>
@@ -1494,6 +1496,1478 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tim McKenna</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{73CDDCC5-DEF9-4198-AB6F-663FBFA75AEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{C5E57DF2-75BE-427E-B461-846D7F195E14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{4679AE41-C1FC-42AC-AC68-EBAC777A24D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{2891D1DC-16FD-429F-AADE-260368988D34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{56C701D0-649D-415A-8827-D8C01E5844B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{1CFD9AEA-4F24-48EF-8683-675BA2D08F3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{7AB124D7-8C8A-44DD-A61F-3B2C3D2DE3F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{F73B17DE-5D6D-4BEE-8A16-22F591181658}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{F368EADF-F05B-4C15-A4E0-CA9F2F783275}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{89399E78-2781-46CB-8982-30E3233EC7BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{34FB52D3-7A1D-4C5B-9838-1E77E035A0FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{400DA026-3EB6-4927-87CA-8598E92E8996}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9E419422-AFBA-4A9D-AF8D-AF50B3D1D5D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{99451D2F-B00E-4B10-92E4-565F887D03DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{C02017E4-821F-4A2D-86D8-AB6EEDB22A86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{05B2FD82-D89E-4CA6-B9CD-DADA87D3459D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{23C8660F-F760-4D26-A851-EB73153BFF94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{D011BF0E-2314-4932-9D14-810DC408E97A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{135F8B3A-CCD4-4CA6-9ADB-2D061B1E1D5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CDD09690-9535-4ED1-A265-0F0404D34131}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{508032F0-07F6-4EDA-A011-0A700A6AF801}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tim McKenna</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{85FE9CBA-F93B-43B5-B28C-B748067D16DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CF9B7C13-78A0-4C22-B2ED-02E1F25007BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{C5C0C2B0-C7D8-48DC-B611-77EDD2A4A764}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{D92ADB05-C792-4C89-BE63-A85217686695}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{13C37761-4071-4843-870A-B10E43476DE6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{23A0F8D8-9A17-44FA-B0D0-950DE9F790E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{4B41076E-2450-4C6E-BE8A-35E64ED960B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{B26C3E94-49D9-4E31-BF47-D71E7D8D8BBC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{A54E4965-7419-4468-8CF0-313695D1BDDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{552F0E66-4A78-45B4-B1E8-4F94F924695D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{A9329028-B0C0-4BE2-8268-77E608B416D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{DB1CF1A5-0C7A-485D-A583-B1556211EBDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{C5055089-E920-4E54-95E1-41A37A63C4E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{09B0FBDB-DB6B-4BDD-B681-930935159E7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{ADF3EA5F-7244-47DF-9CCC-420BA711BFEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+general description of a test.
+Identify the code structure being tested </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">but do not use line numbers – </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>they change</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{CCC1E4C4-5C15-4912-9312-4906C6D985DE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The purpose of the test, also known as Use Case Testing
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The reason and intent of each test; this is similar to the rational for source code comments.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
++</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message (PASS) or explore inaccurate, unexpected, undefined behaviours</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{ABD71B6F-0104-45FE-87C5-24D1A17B9671}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Test Input:
+exact data for entry to test the purpose.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is similar to source code in a program: it describes exactly how it will be done.
+The What and Why is in the Description and Purpose.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{ED8ABC25-056E-427D-A8ED-7754C261CBF4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">expected Output or Response:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">reference value to confirm 
+the result – this is documented </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">before </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the test is run.
+This is similar to the programming debug process by which results of processing are examined to confirm expectations and assumptions (PASS) or to identify an unexpected issue (FAIL).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{6042BCC7-031E-47BA-A9F9-4BCD87E8EB3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">…what the heading says. 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hover over Result and Comments for more details.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{CC504C61-CC97-4174-A7C7-275726DF8270}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Result:
+PASS or FAIL
++ Positive test cases are expected to PASS.
+- Negative test cases:
+PASS if the program handles input that cannot be processed accurately.
+FAIL if an operating system message appears, or if the program gives inaccurate output. 
+E.g. data input of "ABC" when numeric input is prompted is a negative test -- you know it cannot be processed. 
+It is a PASS if the program recognises this condition and issues a diagnostic message to user. 
+It is a FAIL if the program returns an inaccurate response, e.g. atoi() returns zero in response to non-numeric parameter.  Comments are required to direct the programmer how to improve the code.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{BE97C2AF-E00A-4817-BF29-A8DB26F8C465}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Required for negative test cases that FAIL
+or for unexpect results.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tim McKenna</author>
@@ -2252,7 +3726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="179">
   <si>
     <t>Program
 or module:</t>
@@ -2278,10 +3752,6 @@
   <si>
     <t>Run by:
 Date:</t>
-  </si>
-  <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
   </si>
   <si>
     <t>Description</t>
@@ -2576,37 +4046,7 @@
     <t>Manipulation</t>
   </si>
   <si>
-    <t>9 999 999 999.0</t>
-  </si>
-  <si>
-    <t>Inputs of extraordinarily large numbers converts to highest number that fits.</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>Inputs of non numeric characters does not convert.</t>
-  </si>
-  <si>
-    <t>Same as above but shows that the decimal is being rounded to the sixth place.</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>large negative numbers work correctly.</t>
-  </si>
-  <si>
-    <t>The printf function is displaying the double as a float resulting in the number only going to sixth decimal place.</t>
-  </si>
-  <si>
-    <t>Large numbers work correctly.</t>
-  </si>
-  <si>
-    <t>Positive numbers convert correctly.</t>
-  </si>
-  <si>
-    <t>Negative numbers convert correctly.</t>
   </si>
   <si>
     <t>Axton Smith
@@ -2616,30 +4056,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>2 147 483 647</t>
-  </si>
-  <si>
-    <t>9 999 999 999</t>
-  </si>
-  <si>
-    <t>Ends program.</t>
-  </si>
-  <si>
-    <t>Input q quits the program.</t>
-  </si>
-  <si>
-    <t>Input negative numbers converts correctly.</t>
-  </si>
-  <si>
-    <t>999 999 999</t>
-  </si>
-  <si>
-    <t>Input large numbers convert correctly.</t>
-  </si>
-  <si>
-    <t>Input lowest whole number converts correctly.</t>
-  </si>
-  <si>
     <t>Axton Smith
 Dec 2, 2023</t>
   </si>
@@ -2647,22 +4063,314 @@
     <t>conversion</t>
   </si>
   <si>
-    <t>1. Input "Classroom"</t>
-  </si>
-  <si>
-    <t>phrase #1 'Classroom'</t>
-  </si>
-  <si>
-    <t>2. input "Classroom of the elite"</t>
-  </si>
-  <si>
-    <t>phrase #1 'Classroom' phrase #2 'of' phrase #3 'the' phrase #4 'elite'</t>
-  </si>
-  <si>
-    <t>3. input  "Class     room o   f theeeeeeeee elllllll ite"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phrase #1 'Class' phrae #2 'room' phrase #3 'o' phrase #4 'f' phrase #5 'theeeeeeeeeee' phrase #6 ' elllllllll' phrase #7 'ite'   </t>
+    <t>The</t>
+  </si>
+  <si>
+    <t>phrase #1 is 'The'</t>
+  </si>
+  <si>
+    <t>Honestly, this is a phrase</t>
+  </si>
+  <si>
+    <t>phrase #1 is 'Honestly'
+phrase #2 is 'this'
+phrase #3 is 'is'
+phrase #4 is 'a'
+phrase #5 is 'phrase'</t>
+  </si>
+  <si>
+    <t>What, if, there, was, a, comma, after, every, word?</t>
+  </si>
+  <si>
+    <t>phrase #1 is 'What'
+phrase #2 is 'if,'
+phrase #3 is 'there,'
+phrase #4 is 'was,'
+phrase #5 is 'a,'
+phrase #6 is 'comma,'
+phrase #7 is 'after,'
+phrase #8 is 'every,'
+phrase #9 is 'word?'</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'The'</t>
+  </si>
+  <si>
+    <t>Honestly. This is a sentence.</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'Honestly'
+Sentence #2 is ' This is a sentence'</t>
+  </si>
+  <si>
+    <t>What. if. there. was. a. period. after. every. word?</t>
+  </si>
+  <si>
+    <t>Sentence #1 is 'What'
+Sentence #2 is ' if'
+Sentence #3 is ' there'
+Sentence #4 is ' was'
+Sentence #5 is ' a'
+Sentence #6 is ' period'
+Sentence #7 is ' after'
+Sentence #8 is ' every'
+Sentence #9 is ' word?'</t>
+  </si>
+  <si>
+    <t>Axton Smith
+Dec 11th, 2023</t>
+  </si>
+  <si>
+    <t>*** End of Tokenizing Sentences Demo ***</t>
+  </si>
+  <si>
+    <t>q quits the program</t>
+  </si>
+  <si>
+    <t>Sentence #1 is '!*&amp;'</t>
+  </si>
+  <si>
+    <t>!*&amp;</t>
+  </si>
+  <si>
+    <t>symbols translate correctly</t>
+  </si>
+  <si>
+    <t>Sentence #1 is '123'</t>
+  </si>
+  <si>
+    <t>numbers translate to words</t>
+  </si>
+  <si>
+    <t>maximal edge case</t>
+  </si>
+  <si>
+    <t>typical case</t>
+  </si>
+  <si>
+    <t>minimal edge case</t>
+  </si>
+  <si>
+    <t>*** End of Tokenizing Words Demo ***</t>
+  </si>
+  <si>
+    <t>phrase #1 is '!*&amp;'</t>
+  </si>
+  <si>
+    <t>phrase #1 is '123'</t>
+  </si>
+  <si>
+    <t>Word #1 is '!*&amp;'</t>
+  </si>
+  <si>
+    <t>Word #1 is '123'</t>
+  </si>
+  <si>
+    <t>Word #1 is 'Have'
+Word #2 is 'a'
+Word #3 is 'really'
+Word #4 is 'good'
+Word #5 is 'day'
+Word #6 is 'and'
+Word #7 is 'enjoy'
+Word #8 is 'reading'
+Word #9 is 'this'
+Word #10 is 'extraordinarily'
+Word #11 is 'long'
+Word #12 is 'sentence'</t>
+  </si>
+  <si>
+    <t>Have a really good day and enjoy reading this extraordinarily long sentence</t>
+  </si>
+  <si>
+    <t>Word #1 is 'Have'
+Word #2 is 'A'
+Word #3 is 'Good'
+Word #4 is 'Day'</t>
+  </si>
+  <si>
+    <t>Have A Good Day</t>
+  </si>
+  <si>
+    <t>Word #1 is 'The'</t>
+  </si>
+  <si>
+    <t>*** End of copying Strings Demo ***</t>
+  </si>
+  <si>
+    <t>quit module</t>
+  </si>
+  <si>
+    <t>New destination string is 'This is a sentence.'
+Destination string is reset to empty</t>
+  </si>
+  <si>
+    <t>This is a sentence.</t>
+  </si>
+  <si>
+    <t>string with spaces</t>
+  </si>
+  <si>
+    <t>New destination string is 'abc123'
+Destination string is reset to empty</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>string with numbers</t>
+  </si>
+  <si>
+    <t>New destination string is 'verylongstringofextraordinarylength'
+Destination string is reset to empty</t>
+  </si>
+  <si>
+    <t>verylongstringofextraordinarylength</t>
+  </si>
+  <si>
+    <t>edge case upper bound</t>
+  </si>
+  <si>
+    <t>New destination string is 'string'
+Destination string is reset to empty</t>
+  </si>
+  <si>
+    <t>New destination string is 'f'
+Destination string is reset to empty</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>edge case lower bound</t>
+  </si>
+  <si>
+    <t>The length of '' is 0 characters</t>
+  </si>
+  <si>
+    <t>Input nothing</t>
+  </si>
+  <si>
+    <t>Empty string</t>
+  </si>
+  <si>
+    <t>*** End of Measuring Strings Demo ***</t>
+  </si>
+  <si>
+    <t>Input string 'q'</t>
+  </si>
+  <si>
+    <t>quit string</t>
+  </si>
+  <si>
+    <t>The length of 'hhhhhhhhhhh hhhh' is 16 characters</t>
+  </si>
+  <si>
+    <t>Input string 'hhhhhhhhhhh hhhh'</t>
+  </si>
+  <si>
+    <t>long string with a space</t>
+  </si>
+  <si>
+    <t>The length of 'a b c d e f' is 12 characters</t>
+  </si>
+  <si>
+    <t>Input string 'a b c d e f'</t>
+  </si>
+  <si>
+    <t>The length of 'abcdef' is 6 characters</t>
+  </si>
+  <si>
+    <t>Input string 'abcdef'</t>
+  </si>
+  <si>
+    <t>The length of 'a' is 1 characters</t>
+  </si>
+  <si>
+    <t>Input string 'a'</t>
+  </si>
+  <si>
+    <t>Edge case, lower bound.</t>
+  </si>
+  <si>
+    <t>Damian Orfao
+Dec 8, 2023</t>
+  </si>
+  <si>
+    <t>"Too big... Position reduced to max. available" "The character found at 5 position is 'f' "</t>
+  </si>
+  <si>
+    <t>User inputs string "abcdef", and position -10.</t>
+  </si>
+  <si>
+    <t>Negative string position.</t>
+  </si>
+  <si>
+    <t>User inputs string "abcdef", and position 6.</t>
+  </si>
+  <si>
+    <t>String position beyond string length.</t>
+  </si>
+  <si>
+    <t>"The character found at 15 position is 'p' "</t>
+  </si>
+  <si>
+    <t>User inputs string "abcdefghijklmnop", and position 15.</t>
+  </si>
+  <si>
+    <t>Double digit string position.</t>
+  </si>
+  <si>
+    <t>Middle of the string.</t>
+  </si>
+  <si>
+    <t>Edge case, upper bound.</t>
+  </si>
+  <si>
+    <t>Program does not crash, memory of string2 is used and loop starts again.</t>
+  </si>
+  <si>
+    <t>012345678901234567890' found at 9 position</t>
+  </si>
+  <si>
+    <t>String1 = 1234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>String1 = hello String2 = helloo</t>
+  </si>
+  <si>
+    <t>String2 &gt; String1</t>
+  </si>
+  <si>
+    <t>String1 = hello String2 = hi</t>
+  </si>
+  <si>
+    <t>String not found</t>
+  </si>
+  <si>
+    <t>'o' found at 4 position</t>
+  </si>
+  <si>
+    <t>String1 = hello String2 = o</t>
+  </si>
+  <si>
+    <t>String found at last index</t>
+  </si>
+  <si>
+    <t>he' found at 0 position</t>
+  </si>
+  <si>
+    <t>String1 = hello String2 = he</t>
+  </si>
+  <si>
+    <t>String found at 0 index</t>
+  </si>
+  <si>
+    <t>Brandon Doray
+2023-12-11</t>
   </si>
 </sst>
 </file>
@@ -2853,7 +4561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2958,21 +4666,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3106,7 +4799,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3126,12 +4819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3141,10 +4828,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3159,48 +4846,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3211,7 +4883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3238,13 +4910,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3253,20 +4925,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3274,7 +4985,35 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3589,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3600,104 +5339,104 @@
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="str" cm="1">
+      <c r="B1" s="17" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>41</v>
+      <c r="G2" s="22" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="D4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="17" t="s">
-        <v>38</v>
+      <c r="E5" s="51"/>
+      <c r="F5" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" t="str">
@@ -3707,21 +5446,21 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="17" t="s">
-        <v>38</v>
+      <c r="E6" s="51"/>
+      <c r="F6" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" t="str">
@@ -3731,21 +5470,21 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="17" t="s">
-        <v>38</v>
+      <c r="E7" s="51"/>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="str">
@@ -3755,21 +5494,21 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="A8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="17" t="s">
-        <v>38</v>
+      <c r="E8" s="51"/>
+      <c r="F8" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" t="str">
@@ -3779,21 +5518,21 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="17" t="s">
-        <v>38</v>
+      <c r="E9" s="51"/>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" t="str">
@@ -3803,21 +5542,21 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="17" t="s">
-        <v>38</v>
+      <c r="E10" s="51"/>
+      <c r="F10" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" t="str">
@@ -3827,21 +5566,21 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="17" t="s">
-        <v>38</v>
+      <c r="E11" s="51"/>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" t="str">
@@ -3851,23 +5590,23 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
@@ -3875,23 +5614,23 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="A13" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="25">
         <v>-500</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="25">
         <v>-500</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="10"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
@@ -3899,534 +5638,606 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="31">
+      <c r="A14" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="25">
         <v>1</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="11"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="9"/>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="30">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25">
         <v>999999999</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <v>999999999</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="11"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>These test cases should come from the module test cases</v>
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="28" t="s">
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>97</v>
+      <c r="G16" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="D17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="13" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="B18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="17" t="s">
-        <v>38</v>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G18" s="3"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="17" t="s">
-        <v>38</v>
+      <c r="A19" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G19" s="3"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="17" t="s">
-        <v>38</v>
+      <c r="A20" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="40" t="s">
+      <c r="A21" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>38</v>
+      <c r="E21" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G21" s="3"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="A22" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>38</v>
+      <c r="E22" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G22" s="3"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="40" t="s">
+      <c r="A23" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>38</v>
+      <c r="E23" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G23" s="3"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="17" t="s">
-        <v>38</v>
+      <c r="A24" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="51"/>
+      <c r="F24" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="17" t="s">
-        <v>38</v>
+    <row r="25" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G25" s="3"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="17" t="s">
-        <v>38</v>
+    <row r="26" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6">
+      <c r="A27" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="42">
         <v>-1E-4</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="42">
         <v>-1E-4</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>38</v>
+      <c r="F27" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="A28" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="42">
         <v>5.1234500000000001</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="42">
         <v>5.1234500000000001</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>38</v>
+      <c r="F28" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G28" s="3"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="48">
+      <c r="A29" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="41">
         <v>9999999999</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="41">
         <v>9999999999</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>38</v>
+      <c r="F29" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="G29" s="3"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="17"/>
       <c r="G32" s="3"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+    <row r="33" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+    <row r="34" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
+      <c r="A35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
+      <c r="A36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="E36" s="3"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="A37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
+      <c r="A38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>98</v>
+      </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+    <row r="40" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>100</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="A41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-1</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
+      <c r="A42" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3200100</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3200100</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1234567890</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1234567890</v>
+      </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="14"/>
+      <c r="F43" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="G43" s="4"/>
     </row>
   </sheetData>
@@ -4443,11 +6254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F866A0D8-14FC-4A34-8C7C-962E4D6BC8A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADC07D8-E637-435B-8631-81150CB532A2}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4457,429 +6268,494 @@
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="47" t="str">
+        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As Fundamentals_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="54" t="str">
-        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As Manipulation_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="D21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34"/>
+      <c r="D25" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="59" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="27"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -4896,11 +6772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD7D428-BD66-4DA7-90C9-76A4B1CFB704}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D7017D-B523-4107-A6FB-80913D3AE1D3}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4910,425 +6786,500 @@
     <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="54" t="str">
+      <c r="B1" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="47" t="str">
         <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>Save As conversion_test_cases.xlsx</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+        <v>Save As Manipulation_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="36" t="s">
+      <c r="A2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>107</v>
+      <c r="G2" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="E19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="48">
-        <v>1</v>
-      </c>
-      <c r="D4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="44"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="48">
-        <v>-500</v>
-      </c>
-      <c r="D6" s="48">
-        <v>-500</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="44"/>
-    </row>
-    <row r="8" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="38" t="s">
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="48">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="42"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-1E-4</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-1E-4</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5.1234500000000001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5.1234500000000001</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="6">
-        <v>10.000000001</v>
-      </c>
-      <c r="D14" s="6">
-        <v>10.000000001</v>
-      </c>
-      <c r="E14" s="6">
-        <v>10</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-99.123456779999998</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-99.123456779999998</v>
-      </c>
-      <c r="E15" s="6">
-        <v>-99.123457000000002</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="48">
-        <v>9999999999</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="34"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="34"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="34"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="33"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34"/>
+      <c r="B25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="34"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="33"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="34"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5336,6 +7287,524 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:F1048576">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995454F1-7511-43B8-9FE4-E7DF7BF19A5B}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="47" t="str">
+        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As conversion_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="41">
+        <v>123</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="42">
+        <v>123</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="42">
+        <v>123</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F1048576">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -5351,19 +7820,537 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2970FF-8FD8-4557-ABB8-2E8D1C98DF57}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="47" t="str">
+        <f>"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
+        <v>Save As conversion_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="30"/>
+      <c r="F4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="41">
+        <v>123</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="42">
+        <v>123</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="42">
+        <v>123</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:F1048576">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5505,18 +8492,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6100888-7449-48D7-85C7-BA8BF514594A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2E910B-9A35-443E-B4C3-8A0BE09C1710}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C2E910B-9A35-443E-B4C3-8A0BE09C1710}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6100888-7449-48D7-85C7-BA8BF514594A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
